--- a/data_insertion/slot details.xlsx
+++ b/data_insertion/slot details.xlsx
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E192" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205"/>
+    <sheetView tabSelected="1" topLeftCell="A183" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,8 +465,8 @@
         <v>1</v>
       </c>
       <c r="G1" t="str">
-        <f>CONCATENATE("Insert into [dbo].[slot details] values(",A1,",",B1,",'",C1,"',",D1,",",E1,",",F1,")")</f>
-        <v>Insert into [dbo].[slot details] values(1,1,'A1',0,1,1)</v>
+        <f>CONCATENATE("Insert into [dbo].[slot details] values(",B1,",'",C1,"',",D1,",",E1,",",F1,")")</f>
+        <v>Insert into [dbo].[slot details] values(1,'A1',0,1,1)</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -489,8 +489,8 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G65" si="0">CONCATENATE("Insert into [dbo].[slot details] values(",A2,",",B2,",'",C2,"',",D2,",",E2,",",F2,")")</f>
-        <v>Insert into [dbo].[slot details] values(2,1,'A2',0,1,1)</v>
+        <f t="shared" ref="G2:G65" si="0">CONCATENATE("Insert into [dbo].[slot details] values(",B2,",'",C2,"',",D2,",",E2,",",F2,")")</f>
+        <v>Insert into [dbo].[slot details] values(1,'A2',0,1,1)</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -514,7 +514,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(3,1,'A3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'A3',0,1,1)</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(4,1,'A4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'A4',0,1,1)</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,7 +562,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(5,1,'A5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'A5',0,1,1)</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(6,1,'B1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'B1',0,1,1)</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,7 +610,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(7,1,'B2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'B2',0,1,1)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,7 +634,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(8,1,'B3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'B3',0,1,1)</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(9,1,'B4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'B4',0,1,1)</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,7 +682,7 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(10,1,'B5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'B5',0,1,1)</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(11,1,'C1',1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'C1',1,1,1)</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,7 +730,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(12,1,'C2',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'C2',1,2,1)</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(13,1,'C3',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'C3',1,2,1)</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -778,7 +778,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(14,1,'C4',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'C4',1,2,1)</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,7 +802,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(15,1,'C5',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'C5',1,2,1)</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -826,7 +826,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(16,1,'D1',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'D1',1,2,1)</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(17,1,'D2',1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'D2',1,3,1)</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(18,1,'D3',1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'D3',1,3,1)</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(19,1,'D4',1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'D4',1,3,1)</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -922,7 +922,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(20,1,'D5',1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(1,'D5',1,3,1)</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(21,2,'A1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'A1',0,1,1)</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(22,2,'A2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'A2',0,1,1)</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(23,2,'A3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'A3',0,1,1)</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(24,2,'A4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'A4',0,1,1)</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(25,2,'A5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'A5',0,1,1)</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(26,2,'B1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'B1',0,1,1)</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(27,2,'B2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'B2',0,1,1)</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(28,2,'B3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'B3',0,1,1)</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(29,2,'B4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'B4',0,1,1)</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(30,2,'B5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'B5',0,1,1)</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(31,2,'C1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'C1',-1,1,1)</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(32,2,'C2',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'C2',-1,2,1)</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(33,2,'C3',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'C3',-1,2,1)</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(34,2,'C4',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'C4',-1,2,1)</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(35,2,'C5',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'C5',-1,2,1)</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(36,2,'D1',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'D1',-1,2,1)</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(37,2,'D2',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'D2',-1,3,1)</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(38,2,'D3',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'D3',-1,3,1)</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(39,2,'D4',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'D4',-1,3,1)</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(40,2,'D5',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(2,'D5',-1,3,1)</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(41,3,'A1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'A1',-1,1,1)</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(42,3,'A2',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'A2',-1,1,1)</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(43,3,'A3',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'A3',-1,1,1)</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(44,3,'A4',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'A4',-1,1,1)</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(45,3,'A5',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'A5',-1,1,1)</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(46,3,'B1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'B1',-1,1,1)</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(47,3,'B2',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'B2',-1,1,1)</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(48,3,'B3',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'B3',-1,1,1)</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(49,3,'B4',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'B4',-1,1,1)</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(50,3,'B5',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'B5',-1,1,1)</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(51,3,'C1',-2,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'C1',-2,1,1)</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(52,3,'C2',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'C2',-2,2,1)</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(53,3,'C3',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'C3',-2,2,1)</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(54,3,'C4',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'C4',-2,2,1)</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(55,3,'C5',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'C5',-2,2,1)</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(56,3,'D1',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'D1',-2,2,1)</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(57,3,'D2',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'D2',-2,3,1)</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(58,3,'D3',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'D3',-2,3,1)</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(59,3,'D4',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'D4',-2,3,1)</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(60,3,'D5',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(3,'D5',-2,3,1)</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(61,4,'A1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'A1',0,1,1)</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(62,4,'A2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'A2',0,1,1)</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(63,4,'A3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'A3',0,1,1)</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(64,4,'A4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'A4',0,1,1)</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>Insert into [dbo].[slot details] values(65,4,'A5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'A5',0,1,1)</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2025,8 +2025,8 @@
         <v>1</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" ref="G66:G129" si="1">CONCATENATE("Insert into [dbo].[slot details] values(",A66,",",B66,",'",C66,"',",D66,",",E66,",",F66,")")</f>
-        <v>Insert into [dbo].[slot details] values(66,4,'B1',0,1,1)</v>
+        <f t="shared" ref="G66:G129" si="1">CONCATENATE("Insert into [dbo].[slot details] values(",B66,",'",C66,"',",D66,",",E66,",",F66,")")</f>
+        <v>Insert into [dbo].[slot details] values(4,'B1',0,1,1)</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2050,7 +2050,7 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(67,4,'B2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'B2',0,1,1)</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(68,4,'B3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'B3',0,1,1)</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(69,4,'B4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'B4',0,1,1)</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(70,4,'B5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'B5',0,1,1)</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(71,4,'C1',1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'C1',1,1,1)</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(72,4,'C2',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'C2',1,2,1)</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(73,4,'C3',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'C3',1,2,1)</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(74,4,'C4',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'C4',1,2,1)</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(75,4,'C5',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'C5',1,2,1)</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(76,4,'D1',1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'D1',1,2,1)</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(77,4,'D2',1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'D2',1,3,1)</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(78,4,'D3',1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'D3',1,3,1)</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(79,4,'D4',1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'D4',1,3,1)</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(80,4,'D5',1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(4,'D5',1,3,1)</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(81,5,'A1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'A1',-1,1,1)</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(82,5,'A2',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'A2',-1,1,1)</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(83,5,'A3',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'A3',-1,1,1)</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(84,5,'A4',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'A4',-1,1,1)</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(85,5,'A5',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'A5',-1,1,1)</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(86,5,'B1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'B1',-1,1,1)</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,7 +2530,7 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(87,5,'B2',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'B2',-1,1,1)</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,7 +2554,7 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(88,5,'B3',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'B3',-1,1,1)</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(89,5,'B4',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'B4',-1,1,1)</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(90,5,'B5',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'B5',-1,1,1)</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(91,5,'C1',-2,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'C1',-2,1,1)</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2650,7 +2650,7 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(92,5,'C2',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'C2',-2,2,1)</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(93,5,'C3',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'C3',-2,2,1)</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(94,5,'C4',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'C4',-2,2,1)</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(95,5,'C5',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'C5',-2,2,1)</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(96,5,'D1',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'D1',-2,2,1)</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(97,5,'D2',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'D2',-2,3,1)</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(98,5,'D3',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'D3',-2,3,1)</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(99,5,'D4',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'D4',-2,3,1)</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(100,5,'D5',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(5,'D5',-2,3,1)</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(101,6,'A1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'A1',0,1,1)</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(102,6,'A2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'A2',0,1,1)</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(103,6,'A3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'A3',0,1,1)</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(104,6,'A4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'A4',0,1,1)</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(105,6,'A5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'A5',0,1,1)</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(106,6,'B1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'B1',0,1,1)</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(107,6,'B2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'B2',0,1,1)</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -3034,7 +3034,7 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(108,6,'B3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'B3',0,1,1)</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -3058,7 +3058,7 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(109,6,'B4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'B4',0,1,1)</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(110,6,'B5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'B5',0,1,1)</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(111,6,'C1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'C1',-1,1,1)</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(112,6,'C2',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'C2',-1,2,1)</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(113,6,'C3',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'C3',-1,2,1)</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(114,6,'C4',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'C4',-1,2,1)</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(115,6,'C5',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'C5',-1,2,1)</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(116,6,'D1',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'D1',-1,2,1)</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(117,6,'D2',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'D2',-1,3,1)</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(118,6,'D3',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'D3',-1,3,1)</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
@@ -3298,7 +3298,7 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(119,6,'D4',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'D4',-1,3,1)</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(120,6,'D5',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(6,'D5',-1,3,1)</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(121,7,'A1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'A1',0,1,1)</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(122,7,'A2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'A2',0,1,1)</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
@@ -3394,7 +3394,7 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(123,7,'A3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'A3',0,1,1)</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(124,7,'A4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'A4',0,1,1)</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(125,7,'A5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'A5',0,1,1)</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(126,7,'B1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'B1',0,1,1)</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(127,7,'B2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'B2',0,1,1)</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
@@ -3514,7 +3514,7 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(128,7,'B3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'B3',0,1,1)</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="1"/>
-        <v>Insert into [dbo].[slot details] values(129,7,'B4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'B4',0,1,1)</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -3561,8 +3561,8 @@
         <v>1</v>
       </c>
       <c r="G130" t="str">
-        <f t="shared" ref="G130:G193" si="2">CONCATENATE("Insert into [dbo].[slot details] values(",A130,",",B130,",'",C130,"',",D130,",",E130,",",F130,")")</f>
-        <v>Insert into [dbo].[slot details] values(130,7,'B5',0,1,1)</v>
+        <f t="shared" ref="G130:G193" si="2">CONCATENATE("Insert into [dbo].[slot details] values(",B130,",'",C130,"',",D130,",",E130,",",F130,")")</f>
+        <v>Insert into [dbo].[slot details] values(7,'B5',0,1,1)</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(131,7,'C1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'C1',-1,1,1)</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(132,7,'C2',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'C2',-1,2,1)</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -3634,7 +3634,7 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(133,7,'C3',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'C3',-1,2,1)</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(134,7,'C4',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'C4',-1,2,1)</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(135,7,'C5',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'C5',-1,2,1)</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(136,7,'D1',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'D1',-1,2,1)</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(137,7,'D2',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'D2',-1,3,1)</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(138,7,'D3',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'D3',-1,3,1)</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(139,7,'D4',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'D4',-1,3,1)</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(140,7,'D5',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(7,'D5',-1,3,1)</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(141,8,'A1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'A1',0,1,1)</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(142,8,'A2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'A2',0,1,1)</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -3874,7 +3874,7 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(143,8,'A3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'A3',0,1,1)</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(144,8,'A4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'A4',0,1,1)</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(145,8,'A5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'A5',0,1,1)</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(146,8,'B1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'B1',0,1,1)</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -3970,7 +3970,7 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(147,8,'B2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'B2',0,1,1)</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(148,8,'B3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'B3',0,1,1)</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
@@ -4018,7 +4018,7 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(149,8,'B4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'B4',0,1,1)</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(150,8,'B5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'B5',0,1,1)</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(151,8,'C1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'C1',-1,1,1)</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(152,8,'C2',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'C2',-1,2,1)</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(153,8,'C3',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'C3',-1,2,1)</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(154,8,'C4',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'C4',-1,2,1)</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(155,8,'C5',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'C5',-1,2,1)</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(156,8,'D1',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'D1',-1,2,1)</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(157,8,'D2',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'D2',-1,3,1)</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
@@ -4234,7 +4234,7 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(158,8,'D3',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'D3',-1,3,1)</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(159,8,'D4',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'D4',-1,3,1)</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(160,8,'D5',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(8,'D5',-1,3,1)</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -4306,7 +4306,7 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(161,9,'A1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'A1',0,1,1)</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
@@ -4330,7 +4330,7 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(162,9,'A2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'A2',0,1,1)</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -4354,7 +4354,7 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(163,9,'A3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'A3',0,1,1)</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(164,9,'A4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'A4',0,1,1)</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -4402,7 +4402,7 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(165,9,'A5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'A5',0,1,1)</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(166,9,'B1',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'B1',0,1,1)</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
@@ -4450,7 +4450,7 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(167,9,'B2',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'B2',0,1,1)</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(168,9,'B3',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'B3',0,1,1)</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -4498,7 +4498,7 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(169,9,'B4',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'B4',0,1,1)</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
@@ -4522,7 +4522,7 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(170,9,'B5',0,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'B5',0,1,1)</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(171,9,'C1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'C1',-1,1,1)</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(172,9,'C2',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'C2',-1,2,1)</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(173,9,'C3',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'C3',-1,2,1)</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(174,9,'C4',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'C4',-1,2,1)</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(175,9,'C5',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'C5',-1,2,1)</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -4666,7 +4666,7 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(176,9,'D1',-1,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'D1',-1,2,1)</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(177,9,'D2',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'D2',-1,3,1)</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(178,9,'D3',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'D3',-1,3,1)</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(179,9,'D4',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'D4',-1,3,1)</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(180,9,'D5',-1,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(9,'D5',-1,3,1)</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(181,10,'A1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'A1',-1,1,1)</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(182,10,'A2',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'A2',-1,1,1)</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
@@ -4834,7 +4834,7 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(183,10,'A3',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'A3',-1,1,1)</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -4858,7 +4858,7 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(184,10,'A4',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'A4',-1,1,1)</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(185,10,'A5',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'A5',-1,1,1)</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(186,10,'B1',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'B1',-1,1,1)</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
@@ -4930,7 +4930,7 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(187,10,'B2',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'B2',-1,1,1)</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(188,10,'B3',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'B3',-1,1,1)</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="G189" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(189,10,'B4',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'B4',-1,1,1)</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="G190" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(190,10,'B5',-1,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'B5',-1,1,1)</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G191" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(191,10,'C1',-2,1,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'C1',-2,1,1)</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
@@ -5050,7 +5050,7 @@
       </c>
       <c r="G192" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(192,10,'C2',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'C2',-2,2,1)</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -5074,7 +5074,7 @@
       </c>
       <c r="G193" t="str">
         <f t="shared" si="2"/>
-        <v>Insert into [dbo].[slot details] values(193,10,'C3',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'C3',-2,2,1)</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
@@ -5097,8 +5097,8 @@
         <v>1</v>
       </c>
       <c r="G194" t="str">
-        <f t="shared" ref="G194:G200" si="3">CONCATENATE("Insert into [dbo].[slot details] values(",A194,",",B194,",'",C194,"',",D194,",",E194,",",F194,")")</f>
-        <v>Insert into [dbo].[slot details] values(194,10,'C4',-2,2,1)</v>
+        <f t="shared" ref="G194:G200" si="3">CONCATENATE("Insert into [dbo].[slot details] values(",B194,",'",C194,"',",D194,",",E194,",",F194,")")</f>
+        <v>Insert into [dbo].[slot details] values(10,'C4',-2,2,1)</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
@@ -5122,7 +5122,7 @@
       </c>
       <c r="G195" t="str">
         <f t="shared" si="3"/>
-        <v>Insert into [dbo].[slot details] values(195,10,'C5',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'C5',-2,2,1)</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="G196" t="str">
         <f t="shared" si="3"/>
-        <v>Insert into [dbo].[slot details] values(196,10,'D1',-2,2,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'D1',-2,2,1)</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="G197" t="str">
         <f t="shared" si="3"/>
-        <v>Insert into [dbo].[slot details] values(197,10,'D2',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'D2',-2,3,1)</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="G198" t="str">
         <f t="shared" si="3"/>
-        <v>Insert into [dbo].[slot details] values(198,10,'D3',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'D3',-2,3,1)</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -5218,7 +5218,7 @@
       </c>
       <c r="G199" t="str">
         <f t="shared" si="3"/>
-        <v>Insert into [dbo].[slot details] values(199,10,'D4',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'D4',-2,3,1)</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
@@ -5242,7 +5242,7 @@
       </c>
       <c r="G200" t="str">
         <f t="shared" si="3"/>
-        <v>Insert into [dbo].[slot details] values(200,10,'D5',-2,3,1)</v>
+        <v>Insert into [dbo].[slot details] values(10,'D5',-2,3,1)</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
